--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -412,15 +412,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود محمد عبدالحكيم محمد الامين الصادق العايدى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Mohamed Abd El Hakeem</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -635,7 +626,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -935,7 +926,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T56"/>
+  <x:dimension ref="A1:T55"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -943,7 +934,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.230624999999996" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.880625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -2398,7 +2389,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2430,7 +2421,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2462,7 +2453,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2494,7 +2485,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2526,7 +2517,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2558,7 +2549,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2590,7 +2581,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2622,7 +2613,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2654,7 +2645,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2686,7 +2677,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2718,7 +2709,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45907.6653497338</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2735,38 +2726,6 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C56" s="2" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D56" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="E56" s="3">
-        <x:v>45907.6653497338</x:v>
-      </x:c>
-      <x:c r="F56" s="2" t="s"/>
-      <x:c r="G56" s="2" t="s"/>
-      <x:c r="H56" s="2" t="s"/>
-      <x:c r="I56" s="2" t="s"/>
-      <x:c r="J56" s="2" t="s"/>
-      <x:c r="K56" s="2" t="s"/>
-      <x:c r="L56" s="2" t="s"/>
-      <x:c r="M56" s="2" t="s"/>
-      <x:c r="N56" s="2" t="s"/>
-      <x:c r="O56" s="2" t="s"/>
-      <x:c r="P56" s="2" t="s"/>
-      <x:c r="Q56" s="2" t="s"/>
-      <x:c r="R56" s="2" t="s"/>
-      <x:c r="S56" s="2" t="s"/>
-      <x:c r="T56" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,6 +141,15 @@
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240049</x:t>
   </x:si>
   <x:si>
@@ -298,6 +307,15 @@
   </x:si>
   <x:si>
     <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد سامي عبدالباقي ابو الحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -626,7 +644,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E55" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -926,7 +944,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T55"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1401,7 +1419,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1433,7 +1451,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.8643685995</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1465,7 +1483,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.8643685995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1497,7 +1515,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1529,7 +1547,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1561,7 +1579,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1593,7 +1611,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1625,7 +1643,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.3744909375</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1657,7 +1675,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4176873032</x:v>
+        <x:v>45912.3744909375</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1685,9 +1703,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.362237037</x:v>
+        <x:v>45908.4176873032</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1710,16 +1730,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45912.362237037</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1751,7 +1769,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.8994341782</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1783,7 +1801,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45909.8994341782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1815,7 +1833,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1847,7 +1865,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1879,7 +1897,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6888242245</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1911,7 +1929,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6888242245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1943,7 +1961,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1975,7 +1993,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2007,7 +2025,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2039,7 +2057,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2071,7 +2089,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2103,7 +2121,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2131,9 +2149,11 @@
       <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2156,16 +2176,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2188,16 +2208,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
+      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2229,7 +2247,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2261,7 +2279,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2293,7 +2311,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2325,7 +2343,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2357,7 +2375,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2389,7 +2407,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2421,7 +2439,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2453,7 +2471,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2485,7 +2503,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2517,7 +2535,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2549,7 +2567,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2581,7 +2599,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2613,7 +2631,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2645,7 +2663,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2677,7 +2695,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2709,7 +2727,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2726,6 +2744,70 @@
       <x:c r="R55" s="2" t="s"/>
       <x:c r="S55" s="2" t="s"/>
       <x:c r="T55" s="2" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:20">
+      <x:c r="A56" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="E56" s="3">
+        <x:v>45909.5974131597</x:v>
+      </x:c>
+      <x:c r="F56" s="2" t="s"/>
+      <x:c r="G56" s="2" t="s"/>
+      <x:c r="H56" s="2" t="s"/>
+      <x:c r="I56" s="2" t="s"/>
+      <x:c r="J56" s="2" t="s"/>
+      <x:c r="K56" s="2" t="s"/>
+      <x:c r="L56" s="2" t="s"/>
+      <x:c r="M56" s="2" t="s"/>
+      <x:c r="N56" s="2" t="s"/>
+      <x:c r="O56" s="2" t="s"/>
+      <x:c r="P56" s="2" t="s"/>
+      <x:c r="Q56" s="2" t="s"/>
+      <x:c r="R56" s="2" t="s"/>
+      <x:c r="S56" s="2" t="s"/>
+      <x:c r="T56" s="2" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:20">
+      <x:c r="A57" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E57" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F57" s="2" t="s"/>
+      <x:c r="G57" s="2" t="s"/>
+      <x:c r="H57" s="2" t="s"/>
+      <x:c r="I57" s="2" t="s"/>
+      <x:c r="J57" s="2" t="s"/>
+      <x:c r="K57" s="2" t="s"/>
+      <x:c r="L57" s="2" t="s"/>
+      <x:c r="M57" s="2" t="s"/>
+      <x:c r="N57" s="2" t="s"/>
+      <x:c r="O57" s="2" t="s"/>
+      <x:c r="P57" s="2" t="s"/>
+      <x:c r="Q57" s="2" t="s"/>
+      <x:c r="R57" s="2" t="s"/>
+      <x:c r="S57" s="2" t="s"/>
+      <x:c r="T57" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>1240283</x:t>
@@ -644,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -944,7 +953,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1067,7 +1076,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45912.3642570255</x:v>
+        <x:v>45921.9377711806</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6655820602</x:v>
+        <x:v>45912.3642570255</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1131,7 +1140,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6659939468</x:v>
+        <x:v>45907.6655820602</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45907.6659939468</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6689754977</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.666140625</x:v>
+        <x:v>45907.6689754977</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4683091782</x:v>
+        <x:v>45907.666140625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6291917824</x:v>
+        <x:v>45909.4683091782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6841076389</x:v>
+        <x:v>45909.6291917824</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6841076389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4438446412</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45908.4438446412</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.8643685995</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.8643685995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.3744909375</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4176873032</x:v>
+        <x:v>45912.3744909375</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1735,9 +1744,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.362237037</x:v>
+        <x:v>45908.4176873032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1760,16 +1771,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45912.362237037</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1801,7 +1810,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.8994341782</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45909.8994341782</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6888242245</x:v>
+        <x:v>45912.6157400463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6888242245</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2213,9 +2222,11 @@
       <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2238,16 +2249,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
+      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2279,7 +2288,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2311,7 +2320,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2343,7 +2352,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2375,7 +2384,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2407,7 +2416,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2439,7 +2448,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2471,7 +2480,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2503,7 +2512,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2535,7 +2544,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2567,7 +2576,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2599,7 +2608,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2631,7 +2640,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2663,7 +2672,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2695,7 +2704,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2727,7 +2736,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2759,7 +2768,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2791,7 +2800,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2808,6 +2817,38 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -318,6 +318,15 @@
     <x:t>AbdelRahman Ahmed Mohamed Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن ناجى سمير النجدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulrahman Naji Samir Al-Najdi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240331</x:t>
   </x:si>
   <x:si>
@@ -421,6 +430,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام محمد عبدالقادر عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hossam</x:t>
   </x:si>
   <x:si>
     <x:t>1240263</x:t>
@@ -653,7 +671,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -953,7 +971,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T60"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2066,7 +2084,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45922.3770388542</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2098,7 +2116,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2130,7 +2148,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2162,7 +2180,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2194,7 +2212,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2226,7 +2244,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2254,9 +2272,11 @@
       <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2279,16 +2299,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2320,7 +2338,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2352,7 +2370,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2384,7 +2402,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2416,7 +2434,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2448,7 +2466,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2480,7 +2498,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2512,7 +2530,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2544,7 +2562,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2576,7 +2594,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2608,7 +2626,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2640,7 +2658,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2672,7 +2690,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2704,7 +2722,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2736,7 +2754,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2768,7 +2786,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2800,7 +2818,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2832,7 +2850,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2849,6 +2867,70 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45909.5974131597</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -334,6 +334,15 @@
   </x:si>
   <x:si>
     <x:t>Abdallah ahmad samy abdelbaky Abouelhassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله عادل احمد حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Adel Ahmed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -671,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E60" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -971,7 +980,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T60"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2148,7 +2157,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45907.6657721412</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2304,9 +2313,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2329,16 +2340,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2370,7 +2379,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2402,7 +2411,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45906.688821875</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2434,7 +2443,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2466,7 +2475,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2498,7 +2507,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2530,7 +2539,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2562,7 +2571,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2594,7 +2603,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2626,7 +2635,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2658,7 +2667,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2690,7 +2699,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2722,7 +2731,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2754,7 +2763,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2786,7 +2795,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2818,7 +2827,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2850,7 +2859,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2882,7 +2891,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2914,7 +2923,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2931,6 +2940,38 @@
       <x:c r="R60" s="2" t="s"/>
       <x:c r="S60" s="2" t="s"/>
       <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -282,15 +282,6 @@
     <x:t>Sama Mohamed Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>2250001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف محمد وائل سعيد محمد نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saief Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240326</x:t>
   </x:si>
   <x:si>
@@ -430,6 +421,15 @@
   </x:si>
   <x:si>
     <x:t>Maya Sherif Abdellatif Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد حامد احمد حامد سليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Hamed Ahmed Hamed Selim</x:t>
   </x:si>
   <x:si>
     <x:t>1240356</x:t>
@@ -1551,7 +1551,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.8643685995</x:v>
+        <x:v>45927.415768669</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1965,7 +1965,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.6157400463</x:v>
+        <x:v>45907.6888242245</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1997,7 +1997,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6888242245</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2029,7 +2029,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2061,7 +2061,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45922.3770388542</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2093,7 +2093,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45922.3770388542</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2125,7 +2125,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2157,7 +2157,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45923.4432404745</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2189,7 +2189,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2221,7 +2221,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2253,7 +2253,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45927.4182607639</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2285,7 +2285,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6657721412</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2313,11 +2313,9 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2340,14 +2338,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2379,7 +2379,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45927.478122338</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2411,7 +2411,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.688821875</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2443,7 +2443,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2475,7 +2475,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45927.4272664352</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -1805,7 +1805,7 @@
       </x:c>
       <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45912.362237037</x:v>
+        <x:v>45927.7268904282</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2379,7 +2379,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.478122338</x:v>
+        <x:v>45927.7836087963</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -466,6 +466,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hesham Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -680,7 +689,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -980,7 +989,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T62"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2635,7 +2644,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45928.5310535532</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2667,7 +2676,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2699,7 +2708,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2731,7 +2740,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2763,7 +2772,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2795,7 +2804,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2827,7 +2836,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2859,7 +2868,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2891,7 +2900,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2923,7 +2932,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2955,7 +2964,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -2972,6 +2981,38 @@
       <x:c r="R61" s="2" t="s"/>
       <x:c r="S61" s="2" t="s"/>
       <x:c r="T61" s="2" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20">
+      <x:c r="A62" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E62" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F62" s="2" t="s"/>
+      <x:c r="G62" s="2" t="s"/>
+      <x:c r="H62" s="2" t="s"/>
+      <x:c r="I62" s="2" t="s"/>
+      <x:c r="J62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="L62" s="2" t="s"/>
+      <x:c r="M62" s="2" t="s"/>
+      <x:c r="N62" s="2" t="s"/>
+      <x:c r="O62" s="2" t="s"/>
+      <x:c r="P62" s="2" t="s"/>
+      <x:c r="Q62" s="2" t="s"/>
+      <x:c r="R62" s="2" t="s"/>
+      <x:c r="S62" s="2" t="s"/>
+      <x:c r="T62" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -1974,7 +1974,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6888242245</x:v>
+        <x:v>45928.9256944444</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Bilal Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم يحيى محمد فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Yahia Mohamed Farag</x:t>
   </x:si>
   <x:si>
     <x:t>2250008</x:t>
@@ -689,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -989,7 +998,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T62"/>
+  <x:dimension ref="A1:T63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1400,7 +1409,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6841076389</x:v>
+        <x:v>45931.3808240393</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1432,7 +1441,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6841076389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1464,7 +1473,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4438446412</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1496,7 +1505,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45908.4438446412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1528,7 +1537,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1560,7 +1569,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.415768669</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1592,7 +1601,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45927.415768669</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1624,7 +1633,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1656,7 +1665,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6656014236</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6656014236</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.3744909375</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4176873032</x:v>
+        <x:v>45912.3744909375</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1812,9 +1821,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.7268904282</x:v>
+        <x:v>45908.4176873032</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1837,16 +1848,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
+      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45927.7268904282</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1878,7 +1887,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.8994341782</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1910,7 +1919,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3657840625</x:v>
+        <x:v>45909.8994341782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1942,7 +1951,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.5694269676</x:v>
+        <x:v>45912.3657840625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1974,7 +1983,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45928.9256944444</x:v>
+        <x:v>45909.5694269676</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -2006,7 +2015,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45928.9256944444</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2038,7 +2047,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667787037</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2070,7 +2079,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45922.3770388542</x:v>
+        <x:v>45907.6667787037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2102,7 +2111,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.4387941319</x:v>
+        <x:v>45922.3770388542</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2134,7 +2143,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45923.4432404745</x:v>
+        <x:v>45921.4387941319</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2166,7 +2175,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6659944792</x:v>
+        <x:v>45923.4432404745</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2198,7 +2207,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45908.4231055903</x:v>
+        <x:v>45907.6659944792</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2230,7 +2239,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6772765046</x:v>
+        <x:v>45908.4231055903</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2262,7 +2271,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45927.4182607639</x:v>
+        <x:v>45907.6772765046</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2294,7 +2303,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6653522801</x:v>
+        <x:v>45927.4182607639</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2322,9 +2331,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.3569471412</x:v>
+        <x:v>45907.6653522801</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2347,16 +2358,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45912.3569471412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2388,7 +2397,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.7836087963</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2420,7 +2429,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6648376968</x:v>
+        <x:v>45927.7836087963</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2452,7 +2461,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6648376968</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2484,7 +2493,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45927.4272664352</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2516,7 +2525,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45927.4272664352</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2548,7 +2557,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45922.3992687847</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2580,7 +2589,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6646419792</x:v>
+        <x:v>45922.3992687847</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2612,7 +2621,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6660107639</x:v>
+        <x:v>45907.6646419792</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2644,7 +2653,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45928.5310535532</x:v>
+        <x:v>45907.6660107639</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2676,7 +2685,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45928.5310535532</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2708,7 +2717,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3726272338</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2740,7 +2749,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6650168634</x:v>
+        <x:v>45912.3726272338</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2772,7 +2781,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6672380787</x:v>
+        <x:v>45907.6650168634</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2804,7 +2813,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45908.4173496528</x:v>
+        <x:v>45907.6672380787</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2836,7 +2845,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45908.4173496528</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2868,7 +2877,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2900,7 +2909,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6660851505</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2932,7 +2941,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45912.6192313657</x:v>
+        <x:v>45907.6660851505</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2964,7 +2973,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45909.5974131597</x:v>
+        <x:v>45912.6192313657</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -2996,7 +3005,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6653497338</x:v>
+        <x:v>45909.5974131597</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3013,6 +3022,38 @@
       <x:c r="R62" s="2" t="s"/>
       <x:c r="S62" s="2" t="s"/>
       <x:c r="T62" s="2" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:20">
+      <x:c r="A63" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D63" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E63" s="3">
+        <x:v>45907.6653497338</x:v>
+      </x:c>
+      <x:c r="F63" s="2" t="s"/>
+      <x:c r="G63" s="2" t="s"/>
+      <x:c r="H63" s="2" t="s"/>
+      <x:c r="I63" s="2" t="s"/>
+      <x:c r="J63" s="2" t="s"/>
+      <x:c r="K63" s="2" t="s"/>
+      <x:c r="L63" s="2" t="s"/>
+      <x:c r="M63" s="2" t="s"/>
+      <x:c r="N63" s="2" t="s"/>
+      <x:c r="O63" s="2" t="s"/>
+      <x:c r="P63" s="2" t="s"/>
+      <x:c r="Q63" s="2" t="s"/>
+      <x:c r="R63" s="2" t="s"/>
+      <x:c r="S63" s="2" t="s"/>
+      <x:c r="T63" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35452.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35452.xlsx
@@ -528,7 +528,7 @@
     <x:t>مينا ميلاد فانوس اسحق</x:t>
   </x:si>
   <x:si>
-    <x:t>Mena Melad Fanous Isaac</x:t>
+    <x:t>Mina Milad Fanous Isaac</x:t>
   </x:si>
   <x:si>
     <x:t>1240273</x:t>
